--- a/backend/uploads/file-1580742675249.xlsx
+++ b/backend/uploads/file-1580742675249.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eelamaran\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\POC\quiz\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="451">
   <si>
     <t>B</t>
   </si>
@@ -2047,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD66"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,7 +2120,7 @@
         <v>34</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -2166,7 +2166,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -2189,7 +2189,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -2208,7 +2208,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -2226,8 +2226,8 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="4" t="b">
-        <v>1</v>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -2245,8 +2245,8 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="4" t="b">
-        <v>1</v>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -2315,7 +2315,7 @@
         <v>51</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -2338,7 +2338,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -2361,7 +2361,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -2407,7 +2407,7 @@
         <v>70</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
@@ -2430,7 +2430,7 @@
         <v>75</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -2476,7 +2476,7 @@
         <v>85</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -2499,7 +2499,7 @@
         <v>51</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -2522,7 +2522,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
@@ -2545,7 +2545,7 @@
         <v>98</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -2591,7 +2591,7 @@
         <v>108</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -2614,7 +2614,7 @@
         <v>51</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
@@ -2660,7 +2660,7 @@
         <v>51</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
@@ -2683,7 +2683,7 @@
         <v>51</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
@@ -2706,7 +2706,7 @@
         <v>130</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
@@ -2729,7 +2729,7 @@
         <v>135</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
@@ -2752,7 +2752,7 @@
         <v>51</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -2775,7 +2775,7 @@
         <v>144</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -2821,7 +2821,7 @@
         <v>150</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -2844,7 +2844,7 @@
         <v>51</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>156</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -2890,7 +2890,7 @@
         <v>60</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G37" s="3">
         <v>1</v>
@@ -2913,7 +2913,7 @@
         <v>51</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
@@ -2936,7 +2936,7 @@
         <v>51</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G39" s="3">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>51</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -2982,7 +2982,7 @@
         <v>177</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
@@ -3004,8 +3004,8 @@
       <c r="E42" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>33</v>
+      <c r="F42" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
@@ -3028,7 +3028,7 @@
         <v>51</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
@@ -3051,7 +3051,7 @@
         <v>51</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>195</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -3097,7 +3097,7 @@
         <v>51</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
@@ -3120,7 +3120,7 @@
         <v>204</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G47" s="3">
         <v>1</v>
@@ -3143,7 +3143,7 @@
         <v>51</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G48" s="3">
         <v>1</v>
@@ -3166,7 +3166,7 @@
         <v>60</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -3189,7 +3189,7 @@
         <v>60</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G50" s="3">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>51</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
@@ -3235,7 +3235,7 @@
         <v>60</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
@@ -3258,7 +3258,7 @@
         <v>228</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
@@ -3281,7 +3281,7 @@
         <v>233</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>204</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -3327,7 +3327,7 @@
         <v>51</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -3373,7 +3373,7 @@
         <v>98</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G58" s="3">
         <v>1</v>
@@ -3396,7 +3396,7 @@
         <v>98</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
@@ -3419,7 +3419,7 @@
         <v>60</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G60" s="3">
         <v>1</v>
@@ -3465,7 +3465,7 @@
         <v>261</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
@@ -3488,7 +3488,7 @@
         <v>266</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G63" s="3">
         <v>1</v>
@@ -3511,7 +3511,7 @@
         <v>271</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         <v>51</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
@@ -3557,7 +3557,7 @@
         <v>280</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G66" s="3">
         <v>1</v>
@@ -3580,7 +3580,7 @@
         <v>285</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G67" s="3">
         <v>1</v>
@@ -3603,7 +3603,7 @@
         <v>290</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G68" s="3">
         <v>1</v>
@@ -3626,7 +3626,7 @@
         <v>3</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G69" s="3">
         <v>1</v>
@@ -3649,7 +3649,7 @@
         <v>296</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G70" s="3">
         <v>1</v>
@@ -3672,7 +3672,7 @@
         <v>98</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G71" s="3">
         <v>1</v>
@@ -3695,7 +3695,7 @@
         <v>60</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G72" s="3">
         <v>1</v>
@@ -3718,7 +3718,7 @@
         <v>60</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -3741,7 +3741,7 @@
         <v>312</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -3764,7 +3764,7 @@
         <v>130</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G75" s="3">
         <v>1</v>
@@ -3787,7 +3787,7 @@
         <v>98</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G76" s="3">
         <v>1</v>
@@ -3810,7 +3810,7 @@
         <v>322</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -3833,7 +3833,7 @@
         <v>327</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G78" s="3">
         <v>1</v>
@@ -3856,7 +3856,7 @@
         <v>98</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
@@ -3902,7 +3902,7 @@
         <v>341</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
@@ -3971,7 +3971,7 @@
         <v>350</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G84" s="3">
         <v>1</v>
@@ -3994,7 +3994,7 @@
         <v>144</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G85" s="3">
         <v>1</v>
@@ -4040,7 +4040,7 @@
         <v>362</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
@@ -4086,7 +4086,7 @@
         <v>370</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
@@ -4132,7 +4132,7 @@
         <v>377</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
@@ -4155,7 +4155,7 @@
         <v>98</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -4178,7 +4178,7 @@
         <v>384</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -4201,7 +4201,7 @@
         <v>98</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
@@ -4224,7 +4224,7 @@
         <v>98</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G95" s="3">
         <v>1</v>
@@ -4270,7 +4270,7 @@
         <v>401</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G97" s="3">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         <v>405</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -4339,7 +4339,7 @@
         <v>98</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -4385,7 +4385,7 @@
         <v>98</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         <v>427</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -4454,7 +4454,7 @@
         <v>427</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -4477,7 +4477,7 @@
         <v>427</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -4500,7 +4500,7 @@
         <v>98</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G107" s="3">
         <v>1</v>
@@ -4523,7 +4523,7 @@
         <v>98</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G108" s="3">
         <v>1</v>
@@ -4546,7 +4546,7 @@
         <v>396</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
@@ -4569,7 +4569,7 @@
         <v>98</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
@@ -4592,7 +4592,7 @@
         <v>98</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G111" s="3">
         <v>1</v>
